--- a/biology/Zoologie/Flabellina_bilas/Flabellina_bilas.xlsx
+++ b/biology/Zoologie/Flabellina_bilas/Flabellina_bilas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Flabelline décorée
 Flabellina bilas, communément appelé la Flabelline décorée, est une espèce de nudibranches de la famille des Flabellinidés.
@@ -512,9 +524,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Flabellina bilas est décrite par Terrence M. Gosliner (d) et Richard C. Willan (d) à partir d'un holotype conservé à la California Academy of Sciences de San Francisco. Ce spécimen a été trouvé en Papouasie-Nouvelle-Guinée, à proximité de Madang[2]. L'épithète spécifique « bilas » vient du tok pisin (pidgin de Papouasie-Nouvelle-Guinée) et signifie « décoration »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Flabellina bilas est décrite par Terrence M. Gosliner (d) et Richard C. Willan (d) à partir d'un holotype conservé à la California Academy of Sciences de San Francisco. Ce spécimen a été trouvé en Papouasie-Nouvelle-Guinée, à proximité de Madang. L'épithète spécifique « bilas » vient du tok pisin (pidgin de Papouasie-Nouvelle-Guinée) et signifie « décoration ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La flabelline décorée est présente dans la partie occidentale du bassin Indo-Pacifique, depuis la mer Rouge à l'ouest, jusqu'aux îles Marshall à l'est[3],[4]. Elle vit sur des fonds rocheux ou sur des récifs coralliens à des profondeurs comprises entre 5 et 30 m[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La flabelline décorée est présente dans la partie occidentale du bassin Indo-Pacifique, depuis la mer Rouge à l'ouest, jusqu'aux îles Marshall à l'est,. Elle vit sur des fonds rocheux ou sur des récifs coralliens à des profondeurs comprises entre 5 et 30 m.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce nudibranche mesure entre 17 et environ 30 mm à l'âge adulte ; l'espèce atteint parfois une taille de 35 mm en prenant en compte les tentacules oraux[5],[6]. Le corps est mince et allongé ; les tentacules oraux mesurent approximativement trois fois la taille des rhinophores[2]. Le corps est blanc translucide, une teinte orangée est visible sur chaque côté de la tête ; les individus plus jeunes présentent une coloration moins vive[5]. Les deux tentacules oraux portent une trace blanche et opaque ; plusieurs surfaces ovoïdes de la même coloration opaque sont présentes sur les côtés du corps. La surface dorsale est légèrement marron ou brunâtre ; les rhinophores et les cérates sont rosés ou brunâtres ; ces derniers s'achèvent par des anneaux rouges ou orangés. Les cérates sont regroupés en six à sept bouquets comportant chacun entre un et quatre cérates[2],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce nudibranche mesure entre 17 et environ 30 mm à l'âge adulte ; l'espèce atteint parfois une taille de 35 mm en prenant en compte les tentacules oraux,. Le corps est mince et allongé ; les tentacules oraux mesurent approximativement trois fois la taille des rhinophores. Le corps est blanc translucide, une teinte orangée est visible sur chaque côté de la tête ; les individus plus jeunes présentent une coloration moins vive. Les deux tentacules oraux portent une trace blanche et opaque ; plusieurs surfaces ovoïdes de la même coloration opaque sont présentes sur les côtés du corps. La surface dorsale est légèrement marron ou brunâtre ; les rhinophores et les cérates sont rosés ou brunâtres ; ces derniers s'achèvent par des anneaux rouges ou orangés. Les cérates sont regroupés en six à sept bouquets comportant chacun entre un et quatre cérates,.
 </t>
         </is>
       </c>
